--- a/report/reliability/comb/Instituto de Química e Biotecnologia - IQB-Graduação (licenciatura)-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Química e Biotecnologia - IQB-Graduação (licenciatura)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7953519721282188</v>
+        <v>0.7512356182142278</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8012490486571494</v>
+        <v>0.7748317164596346</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9309180083157482</v>
+        <v>0.9191537296789793</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.25147004066870804</v>
+        <v>0.20929974487428502</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.031422457319332</v>
+        <v>3.441122809468557</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.0467683193710581</v>
+        <v>0.053441569679569624</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.471590909090909</v>
+        <v>1.8846153846153846</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7220107182940251</v>
+        <v>0.5783821739793698</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20497932768645363</v>
+        <v>0.11945475723033788</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7629354726902302</v>
+        <v>0.7530327821633114</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7651616535378887</v>
+        <v>0.7741514270528438</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9136807840364953</v>
+        <v>0.9213044111983945</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22851673400688893</v>
+        <v>0.2221805831074968</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.258248344298144</v>
+        <v>3.4277454887172523</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.054384009120655274</v>
+        <v>0.054348399731777394</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.058901856819463944</v>
+        <v>0.06781966173461902</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.16430736595362688</v>
+        <v>0.1313096640366838</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.770687684861522</v>
+        <v>0.7237886997368957</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7761676691886461</v>
+        <v>0.749199807110002</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9207642161596983</v>
+        <v>0.8979429410678248</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.23968195740183723</v>
+        <v>0.19931876774434357</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.467629838706369</v>
+        <v>2.9872377627660147</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.05258666997486301</v>
+        <v>0.05913736753570416</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05896418464957101</v>
+        <v>0.06664010299257707</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2033721134674282</v>
+        <v>0.11060294464727759</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7631174945414848</v>
+        <v>0.7379079206840952</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7669638703853446</v>
+        <v>0.7607371962076016</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9153623837552919</v>
+        <v>0.9094189366685329</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.23029449425585502</v>
+        <v>0.20946036909195423</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.291180091488744</v>
+        <v>3.179504645727014</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.054366906564502056</v>
+        <v>0.056089752011095374</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.05703059525925601</v>
+        <v>0.06601374179297065</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.16430736595362688</v>
+        <v>0.11529862491158971</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7740294579566197</v>
+        <v>0.7425974944541489</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7786758402486685</v>
+        <v>0.76157497597576</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9129428236808789</v>
+        <v>0.9061196794843965</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2423334245552141</v>
+        <v>0.2102244668429949</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.518259557038639</v>
+        <v>3.1941906227860244</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.0517460336022686</v>
+        <v>0.05580871765353761</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05629194747964454</v>
+        <v>0.05246091795952292</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.20658654190547907</v>
+        <v>0.1393926669817243</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7952930756334421</v>
+        <v>0.7344094437958258</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8019146072794898</v>
+        <v>0.7570295643678392</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.894883788943677</v>
+        <v>0.9006592107945255</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2690217725735317</v>
+        <v>0.2061248564741881</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>4.04832782602479</v>
+        <v>3.1157270735355054</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.04604112278002681</v>
+        <v>0.05529765574539309</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.06116193112544868</v>
+        <v>0.05267435973163323</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2172096646284518</v>
+        <v>0.11945475723033788</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.802299934309672</v>
+        <v>0.7448977184248401</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8087169131568188</v>
+        <v>0.7655938826213129</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8977187163761087</v>
+        <v>0.903605569086073</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2776395024927107</v>
+        <v>0.21394463616068105</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.227853735023765</v>
+        <v>3.2661002672745236</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.0447336055632528</v>
+        <v>0.05313995222700515</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05727780188746791</v>
+        <v>0.05094110965976556</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2172096646284518</v>
+        <v>0.1393926669817243</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7974535230054492</v>
+        <v>0.7492829846661989</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8085181847680514</v>
+        <v>0.769870086082754</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9255807570782286</v>
+        <v>0.9081176998848974</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2773820329493513</v>
+        <v>0.2180052535415321</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.222428034686555</v>
+        <v>3.345371633692076</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.0470346393324042</v>
+        <v>0.054925560415297454</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.06450840513953669</v>
+        <v>0.05991027358222632</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2132684665630588</v>
+        <v>0.11945475723033788</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7850160154291882</v>
+        <v>0.7442568230905163</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7887380679173887</v>
+        <v>0.7667170218147971</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9187672614450298</v>
+        <v>0.9002805864885498</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2534001066690196</v>
+        <v>0.21500077911355558</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.7334604495094847</v>
+        <v>3.2866393758317924</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04928444350605121</v>
+        <v>0.054910097345872745</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.0702697426109157</v>
+        <v>0.06005333401009944</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.16430736595362688</v>
+        <v>0.1248582295234203</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7809806180536731</v>
+        <v>0.7342745477460503</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7875729637324882</v>
+        <v>0.7541896086036116</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9289721068442207</v>
+        <v>0.9113356032710702</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2520822055419487</v>
+        <v>0.20361961601329584</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.7074987137733637</v>
+        <v>3.068176265125516</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.05056120496709837</v>
+        <v>0.056637955047247175</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.07343307937010485</v>
+        <v>0.06635783694373223</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.16430736595362688</v>
+        <v>0.1135159399603039</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7833823672044229</v>
+        <v>0.7212031276137645</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7899851741918986</v>
+        <v>0.7540691888904688</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9378281370864664</v>
+        <v>0.9190318688291748</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.25482174026118926</v>
+        <v>0.20351432248308352</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.76156859951277</v>
+        <v>3.066184287720771</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.05006653195195201</v>
+        <v>0.06084135017338748</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.07414340005915002</v>
+        <v>0.07102271678114216</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.16430736595362688</v>
+        <v>0.10401251818521687</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7737224556469608</v>
+        <v>0.7364723138835778</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7811979247598545</v>
+        <v>0.767651112435048</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9105534315474801</v>
+        <v>0.9210841299063732</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2450416686188124</v>
+        <v>0.2158847404053364</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.570340564194618</v>
+        <v>3.303872553383563</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.05180317623852158</v>
+        <v>0.05684873763937539</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06658659837864699</v>
+        <v>0.07049132260723691</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.18268407494761751</v>
+        <v>0.11945475723033788</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7759459706427202</v>
+        <v>0.7162895698051948</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7833847653321592</v>
+        <v>0.7504916112778938</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9051786065892035</v>
+        <v>0.8973617412538752</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24742484869813783</v>
+        <v>0.20042011412013178</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.616480468390907</v>
+        <v>3.0078812785479743</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05128138430051014</v>
+        <v>0.06113845871979062</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06647215783893917</v>
+        <v>0.06431956913842601</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2033721134674282</v>
+        <v>0.11529862491158971</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7202430107437638</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7537071101597046</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8932846926083354</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2031981782671112</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.0602065315341984</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.06012868656792624</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06448594083426176</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1135159399603039</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>44.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.7292491890752809</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7480087570501506</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.7457012953210663</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.6617078837554448</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.272727272727273</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.086141803317283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6428096199632501</v>
+        <v>0.2974867542196214</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6566627647841088</v>
+        <v>0.39390926873327714</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6417011002511126</v>
+        <v>0.31889686315822524</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5474521302151861</v>
+        <v>0.279049705205835</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.9318181818181817</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2275467550935903</v>
+        <v>0.15075567228888181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.7156337923800392</v>
+        <v>0.5951590608608291</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7334643750697234</v>
+        <v>0.6172308228577305</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.7324845885946196</v>
+        <v>0.6042517427876739</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.6395517522117528</v>
+        <v>0.4891692821716199</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3863636363636362</v>
+        <v>3.272727272727273</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1657098663906138</v>
+        <v>1.086141803317283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6172144744221746</v>
+        <v>0.49510556162262465</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6349703284110395</v>
+        <v>0.5181644041030176</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6336845560439681</v>
+        <v>0.48890577803725316</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5035947201286038</v>
+        <v>0.35680421703455545</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8636363636363638</v>
+        <v>3.9318181818181817</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3740266591454051</v>
+        <v>1.2275467550935903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.42969426791828685</v>
+        <v>0.4915065439596439</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.41662506603342464</v>
+        <v>0.5107004518947246</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.4271771282730418</v>
+        <v>0.5266613176387462</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.2901887695789201</v>
+        <v>0.45063843079182364</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6136363636363636</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.3505538758858124</v>
+        <v>0.3901536532574131</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.3629581243848304</v>
+        <v>0.537037022384627</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.34612087075647907</v>
+        <v>0.5507467624927109</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.35401121534141755</v>
+        <v>0.5719016398345725</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.2167390939563524</v>
+        <v>0.390128058004848</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.5909090909090909</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3523138107355597</v>
+        <v>1.3505538758858124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.34796427352101406</v>
+        <v>0.4665798475212352</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3482273051809875</v>
+        <v>0.474360643334693</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3017441166932812</v>
+        <v>0.4891540506162099</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2322382027441608</v>
+        <v>0.30837636349321373</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.227272727272727</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.0753828169353603</v>
+        <v>1.3523138107355597</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5587339618920286</v>
+        <v>0.3821130384204269</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5444305314880508</v>
+        <v>0.4346952287649487</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5088183472979015</v>
+        <v>0.4143440256129877</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.4123278289737155</v>
+        <v>0.35259602636166426</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.1818181818181817</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5888086405876323</v>
+        <v>0.2549717059293527</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5748252265464385</v>
+        <v>0.4199166120052815</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5552126700895316</v>
+        <v>0.46404389980986926</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.49855746525732436</v>
+        <v>0.45684578450048413</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.4409235629729124</v>
+        <v>0.29181669171460717</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.1136363636363635</v>
+        <v>3.227272727272727</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4975314430198055</v>
+        <v>1.0753828169353603</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5245556377651445</v>
+        <v>0.5762267437454837</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5327997269334166</v>
+        <v>0.5752187558272226</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.43976961889670363</v>
+        <v>0.5417829521048994</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4097924489554183</v>
+        <v>0.4077052967296838</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.7045454545454546</v>
+        <v>3.1818181818181817</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2309864725334123</v>
+        <v>1.5888086405876323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6169035783740138</v>
+        <v>0.6330351447647458</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6128133833560988</v>
+        <v>0.5762472968434431</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6096233925640884</v>
+        <v>0.5055309809788403</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5091487130150846</v>
+        <v>0.48891138106494136</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.9545454545454546</v>
+        <v>1.1136363636363635</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3110362571848564</v>
+        <v>1.4975314430198055</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5958437532667386</v>
+        <v>0.5062850027313115</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5933158828230476</v>
+        <v>0.4554090820436248</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5930166156586102</v>
+        <v>0.3748385463126051</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4889207233545592</v>
+        <v>0.36917948370305975</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.7045454545454546</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2309864725334123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>44.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6487707841004181</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6064725177816268</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6050271880609362</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5290299069773132</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.9545454545454546</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3110362571848564</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>44.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6222313763300554</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5793354950690393</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5795181597334415</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5019414262457667</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.8181818181818181</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2625689439655898</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
         <v>0.022727272727272728</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.09090909090909091</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
         <v>0.022727272727272728</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.022727272727272728</v>
       </c>
-      <c r="D46" t="n" s="111">
-        <v>0.11363636363636363</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.29545454545454547</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5454545454545454</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8181818181818182</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.022727272727272728</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.06818181818181818</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09090909090909091</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8181818181818182</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.022727272727272728</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="E49" t="n" s="112">
         <v>0.06818181818181818</v>
       </c>
-      <c r="C49" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D49" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.5681818181818182</v>
-      </c>
       <c r="F49" t="n" s="113">
-        <v>0.29545454545454547</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.06818181818181818</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.06818181818181818</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C50" t="n" s="110">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E50" t="n" s="112">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D50" t="n" s="111">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="E50" t="n" s="112">
-        <v>0.06818181818181818</v>
-      </c>
       <c r="F50" t="n" s="113">
-        <v>0.29545454545454547</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.25</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5681818181818182</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.13636363636363635</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="D51" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.20454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.11363636363636363</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C52" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.5681818181818182</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="G52" t="n" s="114">
         <v>0.06818181818181818</v>
-      </c>
-      <c r="D52" t="n" s="111">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E52" t="n" s="112">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="F52" t="n" s="113">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="G52" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.20454545454545456</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.13636363636363635</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2727272727272727</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2727272727272727</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.11363636363636363</v>
+        <v>0.29545454545454547</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.5681818181818182</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
         <v>0.20454545454545456</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C56" t="n" s="110">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="C57" t="n" s="110">
         <v>0.1590909090909091</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.36363636363636365</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.1590909090909091</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.11363636363636363</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.9316587949048232</v>
+        <v>0.8901564353080703</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.9344173672397631</v>
+        <v>0.986412535604987</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9234487748232729</v>
+        <v>0.9845423143096739</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.7807971658710905</v>
+        <v>0.9603160162475387</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>14.247939247207302</v>
+        <v>72.59724897362234</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.016533183258062075</v>
+        <v>0.005293912130500339</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6136363636363638</v>
+        <v>0.4621212121212121</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.1094920080181907</v>
+        <v>1.0197428593414248</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.7837386256824141</v>
+        <v>0.9683122087292316</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.9132306889352817</v>
+        <v>0.9839006101595236</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.9148163600290538</v>
+        <v>0.9839010340279166</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8813255285696047</v>
+        <v>0.9683122087292314</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.78164895388606</v>
+        <v>0.9683122087292317</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>10.739343380267295</v>
+        <v>61.11579064978834</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.022005795951857934</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.0017140394947605412</v>
-      </c>
+        <v>0.004854082685540111</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.8031817105097155</v>
+        <v>0.9683122087292316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.9137070051803797</v>
+        <v>0.6661921708185055</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.9199120679172118</v>
+        <v>0.9678227632599317</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8894101110771689</v>
+        <v>0.9376517218269727</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.7929074344076553</v>
+        <v>0.9376517218269727</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>11.486275697146016</v>
+        <v>30.077870610149827</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.022146210856751326</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.002145320092396209</v>
-      </c>
+        <v>0.021509483478938125</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.8031817105097155</v>
+        <v>0.9376517218269727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.9060798755661285</v>
+        <v>0.6841456976948797</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.9101388357383753</v>
+        <v>0.9873336288716286</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8731319185615227</v>
+        <v>0.9749841181864116</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.7714856400808038</v>
+        <v>0.9749841181864116</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>10.128277807402627</v>
+        <v>77.94921046171635</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.023548914147038958</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0011123387432945906</v>
-      </c>
+        <v>0.013214715907405099</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.7642955408551126</v>
+        <v>0.9749841181864116</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.910505237215034</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.9127534150097847</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8795185209640541</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.777146635109843</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>10.461766671006657</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.023637300143281047</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.0025892865225537664</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7642955408551126</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>44.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9724417545841092</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.983981967948465</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9750810949214763</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9639727948531974</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3901536532574131</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>44.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.9048308275666712</v>
+        <v>0.9938484120713086</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.9134115615619436</v>
+        <v>0.9943400655265696</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8779036773219708</v>
+        <v>0.9935476259414365</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.8403515795673994</v>
+        <v>0.980487362836218</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.272727272727273</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.086141803317283</v>
+        <v>1.3505538758858124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>44.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.9065452475690668</v>
+        <v>0.9891055162705343</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.9041743182996003</v>
+        <v>0.9817279825694967</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8592216688169099</v>
+        <v>0.968454434507226</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.8307418884298046</v>
+        <v>0.9656500905187902</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.9318181818181817</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2275467550935903</v>
+        <v>1.3523138107355597</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>44.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.9182634321605982</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.9217502536075183</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.893802686863948</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.855984411905112</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3863636363636362</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1657098663906138</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>44.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9257011259878226</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.9171055781479971</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8827750469119782</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.8522005518349398</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8636363636363638</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3740266591454051</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C27" t="n" s="225">
         <v>0.022727272727272728</v>
       </c>
-      <c r="C27" t="n" s="225">
+      <c r="D27" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D27" t="n" s="226">
+      <c r="F27" t="n" s="228">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="G27" t="n" s="229">
         <v>0.022727272727272728</v>
       </c>
-      <c r="E27" t="n" s="227">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="G27" t="n" s="229">
-        <v>0.045454545454545456</v>
-      </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.25</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.29545454545454547</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.0</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,28 +5873,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.77609841827768</v>
+        <v>0.6943539219401289</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8116709083965905</v>
+        <v>0.866587201083291</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6830354605738087</v>
+        <v>0.8442683344149194</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6830354605738087</v>
+        <v>0.6840619597246594</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.309854104249798</v>
+        <v>6.4955327233956845</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.05920082540905875</v>
+        <v>0.04490316629891419</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.2045454545454546</v>
+        <v>2.446969696969697</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.2262543735226836</v>
+        <v>0.8802841384661252</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.6830354605738088</v>
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.77609841827768</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8116709083965905</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.6830354605738087</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.6830354605738087</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.46653744040127487</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.6830354605738087</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6830354605738087</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.309854104249798</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.05920082540905875</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6830354605738087</v>
+        <v>0.6830354605738088</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.46653744040127487</v>
+        <v>0.2927339257710404</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6830354605738087</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.46653744040127487</v>
-      </c>
+        <v>0.7079935038803009</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5479798329239267</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5479798329239269</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.424581347635776</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.056654591352212104</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6830354605738087</v>
+        <v>0.5479798329239268</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.53872905469491</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.9018052368458642</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.8211705856762427</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.8211705856762428</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>9.183842476714432</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.0383339450915283</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.8211705856762428</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>44.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8809735994319018</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9173427550740805</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7581467209502009</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6830354605738087</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.227272727272727</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.0753828169353603</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>44.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.947329236254609</v>
+        <v>0.760617869155941</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9173427550740805</v>
+        <v>0.8888526992144821</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7581467209502007</v>
+        <v>0.8345106578095709</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6830354605738087</v>
+        <v>0.7150669016528644</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9318181818181818</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2549717059293527</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>44.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8974264179977455</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9395225757399385</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.921222330373576</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7433168870230895</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.227272727272727</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.0753828169353603</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>44.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9326733204400508</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.837027463535198</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6933476784109166</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6761508617390016</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.1818181818181817</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.5888086405876323</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.06818181818181818</v>
       </c>
-      <c r="C23" t="n" s="340">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="342">
+      <c r="C25" t="n" s="340">
+        <v>0.9318181818181818</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="C26" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="342">
         <v>0.5681818181818182</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.29545454545454547</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.06818181818181818</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.06818181818181818</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.22727272727272727</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.06818181818181818</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.29545454545454547</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.25</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9358234295415959</v>
+        <v>0.7003951747088186</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9361766383549441</v>
+        <v>0.8019380958414907</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8800113553694441</v>
+        <v>0.7619374768595589</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8800113553694442</v>
+        <v>0.5744032807578868</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>14.668243950567039</v>
+        <v>4.0489265174371845</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.019289361945252645</v>
+        <v>0.03140042178644133</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.8863636363636365</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2476192973840514</v>
+        <v>0.7514765044962884</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8800113553694442</v>
+        <v>0.49409819422842893</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8800113553694442</v>
+        <v>0.8627363239735988</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8800113553694442</v>
+        <v>0.8664030749459091</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.774419985579166</v>
+        <v>0.7642955408551126</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8800113553694442</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8800113553694442</v>
-      </c>
+        <v>0.7642955408551126</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>6.485202219999587</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.04065723124945955</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8800113553694442</v>
+        <v>0.7642955408551126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.774419985579166</v>
+        <v>0.21358024691358013</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8800113553694442</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.774419985579166</v>
-      </c>
+        <v>0.6613998947821331</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.49409819422842893</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.49409819422842904</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.9533363533852592</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.050242515049995176</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8800113553694442</v>
+        <v>0.49409819422842893</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.22473663675380395</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6346409012142165</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.4648161071901187</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.4648161071901187</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.7370332457118245</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.05682429689962245</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.4648161071901186</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>44.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9706932514950475</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9695388995211704</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.9095139748647654</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8800113553694442</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.9545454545454546</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3110362571848564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>44.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.968362601739045</v>
+        <v>0.5598491789759925</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9695388995211704</v>
+        <v>0.7715359177005146</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.9095139748647654</v>
+        <v>0.5510763299236969</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8800113553694442</v>
+        <v>0.5113056194135831</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.8181818181818181</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2625689439655898</v>
+        <v>0.15075567228888181</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>44.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9290261534570569</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8779555592534407</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8227020330395602</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7704955784657304</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.272727272727273</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.086141803317283</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>44.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9457684016269338</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8894885711258481</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8424726943905297</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7772364163146865</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.9318181818181817</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2275467550935903</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="E27" t="n" s="457">
         <v>0.20454545454545456</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
+      <c r="F27" t="n" s="458">
         <v>0.20454545454545456</v>
       </c>
-      <c r="C24" t="n" s="455">
-        <v>0.1590909090909091</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.1590909090909091</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9839006101595236</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9839010340279166</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9683122087292314</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9683122087292317</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>61.11579064978834</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.004854082685540111</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6022727272727273</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.340685114056561</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9683122087292316</v>
+      <c r="A6" t="n" s="491">
+        <v>0.3387850467289719</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.3441899324356137</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.2078680032075778</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.20786800320757792</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>0.5248317301896585</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.19542949083849462</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.0635216143085573</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.20786800320757787</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9683122087292317</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9683122087292317</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9376285335740826</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9683122087292317</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9683122087292317</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9683122087292317</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.20786800320757787</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.20786800320757787</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.043209106757505555</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.20786800320757787</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.20786800320757787</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.20786800320757787</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9376285335740826</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9683122087292317</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9376285335740826</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9683122087292317</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.043209106757505555</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.20786800320757787</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.043209106757505555</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.20786800320757787</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>44.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.992036019854691</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9920464224846617</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.976202013494982</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9683122087292317</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6136363636363636</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.3505538758858124</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8243434451404348</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.777131907467316</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.3543142037550029</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.20786800320757784</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.1136363636363635</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4975314430198055</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>44.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9920568183433086</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9920464224846617</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9762020134949823</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9683122087292316</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.3523138107355597</v>
+      <c r="C18" t="n" s="545">
+        <v>0.7250794542324388</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.777131907467316</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.3543142037550029</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.20786800320757784</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.7045454545454546</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.2309864725334123</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5681818181818182</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="C24" t="n" s="570">
         <v>0.06818181818181818</v>
       </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="F24" t="n" s="572">
+      <c r="D24" t="n" s="571">
         <v>0.045454545454545456</v>
       </c>
-      <c r="G24" t="n" s="573">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="E24" t="n" s="572">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.3387850467289719</v>
+        <v>0.9358234295415959</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.3441899324356137</v>
+        <v>0.9361766383549441</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.2078680032075778</v>
+        <v>0.8800113553694441</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.20786800320757792</v>
+        <v>0.8800113553694442</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>0.5248317301896585</v>
+        <v>14.668243950567039</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.19542949083849462</v>
+        <v>0.019289361945252645</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.9090909090909092</v>
+        <v>1.8863636363636365</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.0635216143085573</v>
+        <v>1.2476192973840514</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.20786800320757787</v>
+        <v>0.8800113553694442</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.20786800320757787</v>
+        <v>0.8800113553694442</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.20786800320757787</v>
+        <v>0.8800113553694442</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.043209106757505555</v>
+        <v>0.774419985579166</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.20786800320757787</v>
+        <v>0.8800113553694442</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.20786800320757787</v>
+        <v>0.8800113553694442</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.20786800320757787</v>
+        <v>0.8800113553694442</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.043209106757505555</v>
+        <v>0.774419985579166</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.20786800320757787</v>
+        <v>0.8800113553694442</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.043209106757505555</v>
+        <v>0.774419985579166</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.20786800320757787</v>
+        <v>0.8800113553694442</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>44.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8243434451404348</v>
+        <v>0.9706932514950475</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.777131907467316</v>
+        <v>0.9695388995211704</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.3543142037550029</v>
+        <v>0.9095139748647654</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.20786800320757784</v>
+        <v>0.8800113553694442</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.1136363636363635</v>
+        <v>1.9545454545454546</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4975314430198055</v>
+        <v>1.3110362571848564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>44.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.7250794542324388</v>
+        <v>0.968362601739045</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.777131907467316</v>
+        <v>0.9695388995211704</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.3543142037550029</v>
+        <v>0.9095139748647654</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.20786800320757784</v>
+        <v>0.8800113553694442</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.7045454545454546</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.2309864725334123</v>
+        <v>1.2625689439655898</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5681818181818182</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="C23" t="n" s="684">
         <v>0.13636363636363635</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.20454545454545456</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.09090909090909091</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="C24" t="n" s="684">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="D24" t="n" s="685">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E24" t="n" s="686">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="F24" t="n" s="687">
         <v>0.11363636363636363</v>
-      </c>
-      <c r="C24" t="n" s="684">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="D24" t="n" s="685">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E24" t="n" s="686">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="F24" t="n" s="687">
-        <v>0.22727272727272727</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7985599738177058</v>
+        <v>0.7472618941449763</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.807180573378499</v>
+        <v>0.7727439262035257</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9304382136169899</v>
+        <v>0.904304869043121</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.295089565676655</v>
+        <v>0.25374929979775174</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.1861994277317836</v>
+        <v>3.400322434926772</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.04767972460895191</v>
+        <v>0.055941383814921995</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.325</v>
+        <v>1.7159090909090908</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7695135884379806</v>
+        <v>0.6440941653740715</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2132684665630588</v>
+        <v>0.12401622658439505</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7613665213311993</v>
+        <v>0.7351834430856068</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7667078390972617</v>
+        <v>0.746987999130408</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.9106354743045044</v>
+        <v>0.8808262511830858</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2674869571404716</v>
+        <v>0.2470119987632705</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.28647064749385</v>
+        <v>2.95238169163139</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.056791180928883314</v>
+        <v>0.059748125906224525</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.06961736483324436</v>
+        <v>0.055440177965299056</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.18608768458060237</v>
+        <v>0.1393926669817243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7688055052357178</v>
+        <v>0.7177128074970714</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7773588218059676</v>
+        <v>0.7400370334899772</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.9179581442458709</v>
+        <v>0.8718745966966626</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.27951191867009373</v>
+        <v>0.24029487829666005</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.4915321061070617</v>
+        <v>2.846701756888304</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.05502663712499006</v>
+        <v>0.06024693121441109</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.06989836112865157</v>
+        <v>0.055854507000728186</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.21056823488531834</v>
+        <v>0.11945475723033788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7638580808304867</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7708287627984939</v>
+        <v>0.7492183201548568</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.9138540237781215</v>
+        <v>0.8790020445215486</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.27205369953571723</v>
+        <v>0.2492199461611606</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.3635493363450255</v>
+        <v>2.9875321060832523</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.05620475626250094</v>
+        <v>0.057519899432328776</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.06656904034971893</v>
+        <v>0.05502899322567683</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.18544695392955296</v>
+        <v>0.1393926669817243</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7731281970919757</v>
+        <v>0.752343023856243</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7803300313770167</v>
+        <v>0.7749070684264807</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.9080809101288672</v>
+        <v>0.9105185299494283</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.28299899266484235</v>
+        <v>0.27667906095090317</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.5522836201442134</v>
+        <v>3.4426095169202715</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.0538842332553249</v>
+        <v>0.05722533257854346</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.06555437053162037</v>
+        <v>0.07875586972218611</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2125388339180148</v>
+        <v>0.1393926669817243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7791031624294246</v>
+        <v>0.7174355966474755</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7904201074401854</v>
+        <v>0.7437923081876903</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.9084385314454383</v>
+        <v>0.8736410966800573</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2953032014987564</v>
+        <v>0.24389339596336812</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.771450103280294</v>
+        <v>2.9030834434610595</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.05250043858548003</v>
+        <v>0.06202191460419077</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.0781806470377015</v>
+        <v>0.07793081715428703</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.21056823488531834</v>
+        <v>0.11529862491158971</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7748129539620991</v>
+        <v>0.7333170820890974</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7869693401588441</v>
+        <v>0.7547918751181588</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.9019888638480575</v>
+        <v>0.886971289494681</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2910125595296035</v>
+        <v>0.25485389987019624</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.6941599896730346</v>
+        <v>3.0781682926773803</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.05345952973024393</v>
+        <v>0.058526391960270145</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.07974460970033612</v>
+        <v>0.07713187073810028</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2125388339180148</v>
+        <v>0.11945475723033788</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7985732009925558</v>
+        <v>0.7262140733399405</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8087819183447057</v>
+        <v>0.7580503899368825</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8884884887410546</v>
+        <v>0.9098088489347866</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.31970891501167764</v>
+        <v>0.25822700486263395</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.229630960332944</v>
+        <v>3.1330920092788297</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.046723328062185814</v>
+        <v>0.06154876720601802</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.07058771316510677</v>
+        <v>0.08456604675562333</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.23246573599565806</v>
+        <v>0.11409821063925027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.8058934150262368</v>
+        <v>0.7328504701428745</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8155682783610823</v>
+        <v>0.7683344517078521</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8921894767935756</v>
+        <v>0.9099840398323076</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3294621322441473</v>
+        <v>0.2692769372409718</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.422060755675263</v>
+        <v>3.31656760088869</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.04528230176763453</v>
+        <v>0.059638547271789896</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.06570879388442524</v>
+        <v>0.08267681274211165</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.23246573599565806</v>
+        <v>0.12352242272726738</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7934568835098336</v>
+        <v>0.7111821086261981</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8007703834928328</v>
+        <v>0.7516999414477142</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.933572325255395</v>
+        <v>0.8754872665650135</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.308720403197317</v>
+        <v>0.25170768267587484</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.019334060526215</v>
+        <v>3.027385276630632</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.04982283308907356</v>
+        <v>0.06390927138574143</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.08759130810440517</v>
+        <v>0.07237783130178019</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.20992750423426892</v>
+        <v>0.1248582295234203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7875942211055277</v>
+        <v>0.703406068815144</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7976887112384873</v>
+        <v>0.7462918852431254</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9409824211131028</v>
+        <v>0.8705271715648084</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3046368772739241</v>
+        <v>0.24632819319247826</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.9428779091947415</v>
+        <v>2.9415373093536537</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.051326447955972174</v>
+        <v>0.06576609177692536</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.08974385492367146</v>
+        <v>0.07369967638120549</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.18544695392955296</v>
+        <v>0.11887248655139152</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7484813821640424</v>
+        <v>0.5712465505894037</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7689793470507613</v>
+        <v>0.6153652569739234</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7634872797560613</v>
+        <v>0.6395216690814879</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6753873803945958</v>
+        <v>0.5282764623575371</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.272727272727273</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.086141803317283</v>
+        <v>0.3901536532574131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.681341493471488</v>
+        <v>0.6221213879969915</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6973823808247092</v>
+        <v>0.6575641454475196</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6795991054377631</v>
+        <v>0.688182433092576</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5804913399225496</v>
+        <v>0.4660783651351664</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.9318181818181817</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2275467550935903</v>
+        <v>1.3505538758858124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.7200768461347973</v>
+        <v>0.5656673576655347</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7417888317023306</v>
+        <v>0.60149429448899</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.7361051660594522</v>
+        <v>0.6241729232776589</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.6338108797612438</v>
+        <v>0.3960790739286975</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.3863636363636362</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.1657098663906138</v>
+        <v>1.3523138107355597</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6565448931771326</v>
+        <v>0.2912122387964378</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6766202421338916</v>
+        <v>0.42898821418926486</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6734221497466113</v>
+        <v>0.3312396803977197</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5352694667947276</v>
+        <v>0.2695758079751329</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.8636363636363638</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.3740266591454051</v>
+        <v>0.15075567228888181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6120192385264049</v>
+        <v>0.6019941891803342</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6033606294399192</v>
+        <v>0.6349572193930422</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5934151339756515</v>
+        <v>0.6178154812907214</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.48757363252598923</v>
+        <v>0.47699970719727136</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.9545454545454546</v>
+        <v>3.272727272727273</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3110362571848564</v>
+        <v>1.086141803317283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6391038150235148</v>
+        <v>0.5249610210113339</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6289072349235859</v>
+        <v>0.5661001720499486</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6233199591559948</v>
+        <v>0.5333646445868021</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5254810087643116</v>
+        <v>0.36565711261943856</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.8181818181818181</v>
+        <v>3.9318181818181817</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2625689439655898</v>
+        <v>1.2275467550935903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.4771911464806726</v>
+        <v>0.6080777871192148</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.45804831041063526</v>
+        <v>0.5449093534405217</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.4683622749024123</v>
+        <v>0.4465392526479238</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.32469120040435007</v>
+        <v>0.4276479316761544</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.6136363636363636</v>
+        <v>1.1136363636363635</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.3505538758858124</v>
+        <v>1.4975314430198055</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.4212589320127769</v>
+        <v>0.528160451652369</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.3999773749595494</v>
+        <v>0.4754904906417789</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.40792466077574874</v>
+        <v>0.3731610651902482</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.261309429666125</v>
+        <v>0.36892050100278123</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.5909090909090909</v>
+        <v>2.7045454545454546</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.3523138107355597</v>
+        <v>1.2309864725334123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5443782369183957</v>
+        <v>0.6480715567584571</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5234742252719257</v>
+        <v>0.5858656160607922</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4460345918863667</v>
+        <v>0.5789089995382598</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.38485358589031765</v>
+        <v>0.5040991034643838</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.1136363636363635</v>
+        <v>1.9545454545454546</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4975314430198055</v>
+        <v>1.3110362571848564</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>44.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5407267910820709</v>
+        <v>0.6813988756068071</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5477876558721111</v>
+        <v>0.6196611208285203</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.44056911845365915</v>
+        <v>0.6164107025337202</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.41236140890068257</v>
+        <v>0.5526765262369585</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.7045454545454546</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.2309864725334123</v>
+        <v>1.2625689439655898</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.022727272727272728</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.09090909090909091</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.36363636363636365</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.45454545454545453</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="799">
         <v>0.022727272727272728</v>
       </c>
-      <c r="C40" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="799">
-        <v>0.11363636363636363</v>
-      </c>
       <c r="E40" t="n" s="800">
-        <v>0.20454545454545456</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.20454545454545456</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.45454545454545453</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C41" t="n" s="798">
         <v>0.022727272727272728</v>
       </c>
-      <c r="C41" t="n" s="798">
+      <c r="D41" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="800">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D41" t="n" s="799">
+      <c r="F41" t="n" s="801">
         <v>0.045454545454545456</v>
       </c>
-      <c r="E41" t="n" s="800">
-        <v>0.25</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.5</v>
-      </c>
       <c r="G41" t="n" s="802">
-        <v>0.09090909090909091</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
         <v>0.022727272727272728</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.022727272727272728</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.11363636363636363</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.29545454545454547</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
         <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5454545454545454</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.20454545454545456</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.13636363636363635</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2727272727272727</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2727272727272727</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.11363636363636363</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="C44" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="799">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="E44" t="n" s="800">
         <v>0.20454545454545456</v>
       </c>
-      <c r="C44" t="n" s="798">
-        <v>0.1590909090909091</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.1590909090909091</v>
-      </c>
       <c r="F44" t="n" s="801">
-        <v>0.11363636363636363</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,19 +8376,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8181818181818182</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.0</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.06818181818181818</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="F45" t="n" s="801">
         <v>0.09090909090909091</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8181818181818182</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.022727272727272728</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.0</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.09090909090909091</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.045454545454545456</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5681818181818182</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="C47" t="n" s="798">
         <v>0.13636363636363635</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.20454545454545456</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.09090909090909091</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="C48" t="n" s="798">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="D48" t="n" s="799">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E48" t="n" s="800">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="F48" t="n" s="801">
         <v>0.11363636363636363</v>
-      </c>
-      <c r="C48" t="n" s="798">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="D48" t="n" s="799">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E48" t="n" s="800">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="F48" t="n" s="801">
-        <v>0.22727272727272727</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
